--- a/Цены на комплектующие.xlsx
+++ b/Цены на комплектующие.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="ЩМП" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
   <si>
     <t>№</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t xml:space="preserve">2,5мм.кв., земля </t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Panel</t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,8 +347,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -365,12 +377,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +434,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -688,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,9 +731,10 @@
     <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +753,11 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -743,8 +776,11 @@
       <c r="F2" s="4">
         <v>9734</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -763,8 +799,11 @@
       <c r="F3" s="4">
         <v>16311</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -783,8 +822,11 @@
       <c r="F4" s="4">
         <v>19000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -803,8 +845,11 @@
       <c r="F5" s="4">
         <v>22824</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -823,8 +868,11 @@
       <c r="F6" s="4">
         <v>32100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -842,6 +890,9 @@
       </c>
       <c r="F7" s="4">
         <v>35100</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -851,10 +902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,7 +918,7 @@
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,8 +937,11 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -904,8 +958,11 @@
       <c r="F2" s="8">
         <v>20200</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -922,8 +979,11 @@
       <c r="F3" s="8">
         <v>9000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -940,8 +1000,11 @@
       <c r="F4" s="8">
         <v>14400</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -958,8 +1021,11 @@
       <c r="F5" s="8">
         <v>24000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -976,8 +1042,11 @@
       <c r="F6" s="8">
         <v>9000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -993,6 +1062,9 @@
       <c r="E7" s="6"/>
       <c r="F7" s="8">
         <v>19800</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1002,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1089,7 @@
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1108,11 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1056,8 +1131,11 @@
       <c r="F2" s="14">
         <v>911</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1076,8 +1154,11 @@
       <c r="F3" s="15">
         <v>1036</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1096,8 +1177,11 @@
       <c r="F4" s="15">
         <v>1185</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1116,8 +1200,11 @@
       <c r="F5" s="15">
         <v>1499</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1136,8 +1223,11 @@
       <c r="F6" s="15">
         <v>1708</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1156,8 +1246,11 @@
       <c r="F7" s="15">
         <v>3036</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1175,6 +1268,9 @@
       </c>
       <c r="F8" s="15">
         <v>3845</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1184,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,7 +1296,7 @@
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,8 +1315,11 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1239,8 +1338,11 @@
       <c r="F2" s="8">
         <v>3291</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1259,8 +1361,11 @@
       <c r="F3" s="8">
         <v>2157</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1279,8 +1384,11 @@
       <c r="F4" s="8">
         <v>2169</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1299,8 +1407,11 @@
       <c r="F5" s="8">
         <v>290</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1318,6 +1429,9 @@
       </c>
       <c r="F6" s="8">
         <v>220</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1327,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,7 +1456,7 @@
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,8 +1475,11 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1381,8 +1498,11 @@
       <c r="F2" s="8">
         <v>398</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1400,6 +1520,9 @@
       </c>
       <c r="F3" s="8">
         <v>211</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1409,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,7 +1548,7 @@
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,8 +1567,11 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1460,8 +1586,11 @@
       <c r="F2" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1476,8 +1605,11 @@
       <c r="F3" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1492,8 +1624,11 @@
       <c r="F4" s="8">
         <v>45.52</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1508,8 +1643,11 @@
       <c r="F5" s="8">
         <v>11.78</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1524,8 +1662,11 @@
       <c r="F6" s="8">
         <v>11.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1540,8 +1681,11 @@
       <c r="F7" s="8">
         <v>11.78</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1555,6 +1699,9 @@
       </c>
       <c r="F8" s="8">
         <v>11.02</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1564,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1727,7 @@
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,8 +1746,11 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1619,8 +1769,11 @@
       <c r="F2" s="8">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1639,8 +1792,11 @@
       <c r="F3" s="8">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1659,8 +1815,11 @@
       <c r="F4" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1679,8 +1838,11 @@
       <c r="F5" s="8">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1699,8 +1861,11 @@
       <c r="F6" s="8">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1719,8 +1884,11 @@
       <c r="F7" s="8">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1738,6 +1906,9 @@
       </c>
       <c r="F8" s="8">
         <v>56.54</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
